--- a/Experiments/Figure 6/3-14-2024 6156 D021 plating/3-14-2024 Plating.xlsx
+++ b/Experiments/Figure 6/3-14-2024 6156 D021 plating/3-14-2024 Plating.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Documents\Helena\Duke\You Lab\Projects\Dosing Project\Experiments\2024 Population Composition\3-14-2024 6156 D021 plating\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD4D6AC-B7DF-4F78-943D-853F4A133358}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E364A0D-A0FA-4E72-9E46-13BE2F74976C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{913E35F3-A054-4690-A30A-1DF2F3FCA5B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="52">
   <si>
     <t>cfu/mL</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Strain</t>
+  </si>
+  <si>
+    <t>SEM</t>
+  </si>
+  <si>
+    <t>STDEV</t>
   </si>
 </sst>
 </file>
@@ -8702,8 +8708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8D8809-5B56-47EF-993F-36560E82ED92}">
   <dimension ref="A1:AY163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AN41" sqref="AB3:AN41"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AM44" sqref="AM44:AM58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8731,11 +8737,11 @@
     <col min="33" max="33" width="7.81640625" style="1" customWidth="1"/>
     <col min="34" max="34" width="14.1796875" style="1" customWidth="1"/>
     <col min="35" max="35" width="14" style="1" customWidth="1"/>
-    <col min="36" max="36" width="9.81640625" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.08984375" style="1" customWidth="1"/>
     <col min="37" max="37" width="14.54296875" style="1" customWidth="1"/>
     <col min="38" max="38" width="9" style="1" customWidth="1"/>
-    <col min="39" max="39" width="10.453125" style="1" customWidth="1"/>
-    <col min="40" max="40" width="8.7265625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="16.7265625" style="1" customWidth="1"/>
+    <col min="40" max="40" width="24.26953125" style="1" customWidth="1"/>
     <col min="41" max="41" width="11.26953125" style="1" customWidth="1"/>
     <col min="42" max="43" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
@@ -13906,6 +13912,12 @@
       <c r="AK43" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AL43" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM43" s="1" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
@@ -14000,13 +14012,16 @@
         <v>1365000000</v>
       </c>
       <c r="AI44" s="3">
-        <v>1.098901098901099E-2</v>
+        <v>1.0989010989011E-2</v>
       </c>
       <c r="AJ44" s="3">
         <v>6.5219429117914285E-2</v>
       </c>
       <c r="AK44" s="1">
         <v>0.98901098901098905</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>6.5219429117914285E-2</v>
       </c>
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.35">
@@ -14122,6 +14137,9 @@
       <c r="AK45" s="1">
         <v>0</v>
       </c>
+      <c r="AM45" s="1">
+        <v>0.14629795472825119</v>
+      </c>
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
@@ -14224,6 +14242,9 @@
       <c r="AK46" s="1">
         <v>0</v>
       </c>
+      <c r="AM46" s="1">
+        <v>3.0413194889743971E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
@@ -14342,6 +14363,14 @@
         <f>1-AI47</f>
         <v>0.46167299913835302</v>
       </c>
+      <c r="AL47" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM6:AM8)</f>
+        <v>1.8523548769646229E-2</v>
+      </c>
+      <c r="AM47" s="1">
+        <f>AL47/3</f>
+        <v>6.1745162565487429E-3</v>
+      </c>
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
@@ -14448,8 +14477,16 @@
         <f t="shared" ref="AK48:AK58" si="28">1-AI48</f>
         <v>0.55008121144737476</v>
       </c>
+      <c r="AL48" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM9:AM11)</f>
+        <v>2.9465088659697092E-2</v>
+      </c>
+      <c r="AM48" s="1">
+        <f t="shared" ref="AM48:AM58" si="29">AL48/3</f>
+        <v>9.8216962198990308E-3</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>24</v>
       </c>
@@ -14566,8 +14603,16 @@
         <f t="shared" si="28"/>
         <v>0.14179673326751774</v>
       </c>
+      <c r="AL49" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM12,AM17,AM22)</f>
+        <v>1.2769206071340267E-2</v>
+      </c>
+      <c r="AM49" s="1">
+        <f t="shared" si="29"/>
+        <v>4.2564020237800893E-3</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>24</v>
       </c>
@@ -14657,7 +14702,7 @@
         <v>0</v>
       </c>
       <c r="AH50">
-        <f t="shared" ref="AH50:AH53" si="29">_xlfn.AGGREGATE(1, 6, AI13,AI18,AI23)</f>
+        <f t="shared" ref="AH50:AH53" si="30">_xlfn.AGGREGATE(1, 6, AI13,AI18,AI23)</f>
         <v>671666666.66666663</v>
       </c>
       <c r="AI50" s="3">
@@ -14672,8 +14717,16 @@
         <f t="shared" si="28"/>
         <v>0.895493505872199</v>
       </c>
+      <c r="AL50" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM13,AM18,AM23)</f>
+        <v>7.8131005804220638E-2</v>
+      </c>
+      <c r="AM50" s="1">
+        <f t="shared" si="29"/>
+        <v>2.6043668601406878E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>24</v>
       </c>
@@ -14775,7 +14828,7 @@
         <v>0</v>
       </c>
       <c r="AH51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>545000000</v>
       </c>
       <c r="AI51" s="3">
@@ -14790,8 +14843,16 @@
         <f t="shared" si="28"/>
         <v>0.86000594707106748</v>
       </c>
+      <c r="AL51" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM14,AM19,AM24)</f>
+        <v>0.16849975890937732</v>
+      </c>
+      <c r="AM51" s="1">
+        <f t="shared" si="29"/>
+        <v>5.6166586303125772E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>24</v>
       </c>
@@ -14881,7 +14942,7 @@
         <v>2</v>
       </c>
       <c r="AH52">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>603333333.33333337</v>
       </c>
       <c r="AI52" s="3">
@@ -14896,8 +14957,16 @@
         <f t="shared" si="28"/>
         <v>0.57912082636011952</v>
       </c>
+      <c r="AL52" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM15,AM20,AM25)</f>
+        <v>2.3069794248632886E-2</v>
+      </c>
+      <c r="AM52" s="1">
+        <f t="shared" si="29"/>
+        <v>7.6899314162109621E-3</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>24</v>
       </c>
@@ -14999,7 +15068,7 @@
         <v>4</v>
       </c>
       <c r="AH53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>473333333.33333331</v>
       </c>
       <c r="AI53" s="3">
@@ -15014,8 +15083,16 @@
         <f t="shared" si="28"/>
         <v>0.55582922824302128</v>
       </c>
+      <c r="AL53" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM16,AM21,AM26)</f>
+        <v>0.12506115695159359</v>
+      </c>
+      <c r="AM53" s="1">
+        <f t="shared" si="29"/>
+        <v>4.168705231719786E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>24</v>
       </c>
@@ -15120,8 +15197,16 @@
         <f t="shared" si="28"/>
         <v>0.150802852541983</v>
       </c>
+      <c r="AL54" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM27,AM32,AM37)</f>
+        <v>2.0903262162075577E-2</v>
+      </c>
+      <c r="AM54" s="1">
+        <f t="shared" si="29"/>
+        <v>6.9677540540251928E-3</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>24</v>
       </c>
@@ -15223,7 +15308,7 @@
         <v>0</v>
       </c>
       <c r="AH55">
-        <f t="shared" ref="AH55:AH58" si="30">_xlfn.AGGREGATE(1, 6, AI28,AI33,AI38)</f>
+        <f t="shared" ref="AH55:AH58" si="31">_xlfn.AGGREGATE(1, 6, AI28,AI33,AI38)</f>
         <v>973333333.33333337</v>
       </c>
       <c r="AI55" s="3">
@@ -15238,8 +15323,16 @@
         <f t="shared" si="28"/>
         <v>0.68828733368931605</v>
       </c>
+      <c r="AL55" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM28,AM33,AM38)</f>
+        <v>0.22918172170850304</v>
+      </c>
+      <c r="AM55" s="1">
+        <f t="shared" si="29"/>
+        <v>7.639390723616768E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>24</v>
       </c>
@@ -15329,7 +15422,7 @@
         <v>0</v>
       </c>
       <c r="AH56">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>645000000</v>
       </c>
       <c r="AI56" s="3">
@@ -15344,8 +15437,16 @@
         <f t="shared" si="28"/>
         <v>0.88232415004068543</v>
       </c>
+      <c r="AL56" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM29,AM34,AM39)</f>
+        <v>7.3620962788677524E-2</v>
+      </c>
+      <c r="AM56" s="1">
+        <f t="shared" si="29"/>
+        <v>2.4540320929559174E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>24</v>
       </c>
@@ -15447,7 +15548,7 @@
         <v>2</v>
       </c>
       <c r="AH57">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>488333333.33333331</v>
       </c>
       <c r="AI57" s="3">
@@ -15462,8 +15563,16 @@
         <f t="shared" si="28"/>
         <v>0.58007518796992485</v>
       </c>
+      <c r="AL57" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM30,AM35,AM40)</f>
+        <v>0.23138727027169992</v>
+      </c>
+      <c r="AM57" s="1">
+        <f>AL57/3</f>
+        <v>7.7129090090566635E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>24</v>
       </c>
@@ -15553,7 +15662,7 @@
         <v>4</v>
       </c>
       <c r="AH58">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>511666666.66666669</v>
       </c>
       <c r="AI58" s="3">
@@ -15568,8 +15677,16 @@
         <f t="shared" si="28"/>
         <v>0.77951919504272893</v>
       </c>
+      <c r="AL58" s="3">
+        <f>_xlfn.AGGREGATE(7, 7, AM31,AM36,AM41)</f>
+        <v>2.2448217265759313E-2</v>
+      </c>
+      <c r="AM58" s="1">
+        <f t="shared" si="29"/>
+        <v>7.4827390885864381E-3</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>24</v>
       </c>
@@ -15653,7 +15770,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>24</v>
       </c>
@@ -15725,7 +15842,7 @@
         <v>455000000</v>
       </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>24</v>
       </c>
@@ -15809,7 +15926,7 @@
         <v>59999999.999999993</v>
       </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>24</v>
       </c>
@@ -15881,7 +15998,7 @@
         <v>3860000000</v>
       </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>24</v>
       </c>
@@ -15965,7 +16082,7 @@
         <v>39999999.999999993</v>
       </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>24</v>
       </c>
@@ -16503,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <f t="shared" ref="W70:W80" si="31">_xlfn.AGGREGATE(1, 6, P70:U70)</f>
+        <f t="shared" ref="W70:W80" si="32">_xlfn.AGGREGATE(1, 6, P70:U70)</f>
         <v>152500000</v>
       </c>
     </row>
@@ -16575,7 +16692,7 @@
         <v>0</v>
       </c>
       <c r="W71" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1910000000</v>
       </c>
       <c r="X71" s="1">
@@ -16659,7 +16776,7 @@
         <v>0</v>
       </c>
       <c r="W72" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1305000000</v>
       </c>
     </row>
@@ -16731,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>792500000</v>
       </c>
       <c r="X73" s="1">
@@ -16815,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1300000000</v>
       </c>
       <c r="AL74" s="2"/>
@@ -16888,7 +17005,7 @@
         <v>0</v>
       </c>
       <c r="W75" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>307500000</v>
       </c>
       <c r="X75" s="1">
@@ -16972,7 +17089,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>335000000</v>
       </c>
     </row>
@@ -17044,7 +17161,7 @@
         <v>0</v>
       </c>
       <c r="W77" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>630000000</v>
       </c>
       <c r="X77" s="1">
@@ -17104,31 +17221,31 @@
         <v>0</v>
       </c>
       <c r="P78" s="1" t="e">
-        <f t="shared" ref="P78:P80" si="32">I78*100*10^(-1*$I$2)</f>
+        <f t="shared" ref="P78:P80" si="33">I78*100*10^(-1*$I$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q78" s="1" t="e">
-        <f t="shared" ref="Q78:Q80" si="33">J78*100*10^(-1*$J$2)</f>
+        <f t="shared" ref="Q78:Q80" si="34">J78*100*10^(-1*$J$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="R78" s="1">
-        <f t="shared" ref="R78:R80" si="34">K78*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R78:R80" si="35">K78*100*10^(-1*$K$2)</f>
         <v>520000000</v>
       </c>
       <c r="S78" s="1">
-        <f t="shared" ref="S78:S80" si="35">L78*100*10^(-1*$L$2)</f>
+        <f t="shared" ref="S78:S80" si="36">L78*100*10^(-1*$L$2)</f>
         <v>1000000000</v>
       </c>
       <c r="T78" s="1">
-        <f t="shared" ref="T78:T80" si="36">M78*100*10^(-1*$M$2)</f>
+        <f t="shared" ref="T78:T80" si="37">M78*100*10^(-1*$M$2)</f>
         <v>0</v>
       </c>
       <c r="U78" s="1">
-        <f t="shared" ref="U78:U80" si="37">N78*100*10^(-1*$N$2)</f>
+        <f t="shared" ref="U78:U80" si="38">N78*100*10^(-1*$N$2)</f>
         <v>0</v>
       </c>
       <c r="W78" s="1">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>380000000</v>
       </c>
     </row>
@@ -17176,31 +17293,31 @@
         <v>0</v>
       </c>
       <c r="P79" s="1" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q79" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R79" s="1">
+        <f t="shared" si="35"/>
+        <v>610000000</v>
+      </c>
+      <c r="S79" s="1">
+        <f t="shared" si="36"/>
+        <v>1200000000</v>
+      </c>
+      <c r="T79" s="1">
+        <f t="shared" si="37"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U79" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="W79" s="1">
         <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q79" s="1" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R79" s="1">
-        <f t="shared" si="34"/>
-        <v>610000000</v>
-      </c>
-      <c r="S79" s="1">
-        <f t="shared" si="35"/>
-        <v>1200000000</v>
-      </c>
-      <c r="T79" s="1">
-        <f t="shared" si="36"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U79" s="1">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W79" s="1">
-        <f t="shared" si="31"/>
         <v>702500000</v>
       </c>
       <c r="X79" s="1">
@@ -17261,31 +17378,31 @@
         <v>0</v>
       </c>
       <c r="P80" s="1" t="e">
+        <f t="shared" si="33"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q80" s="1" t="e">
+        <f t="shared" si="34"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R80" s="1">
+        <f t="shared" si="35"/>
+        <v>510000000</v>
+      </c>
+      <c r="S80" s="1">
+        <f t="shared" si="36"/>
+        <v>1600000000</v>
+      </c>
+      <c r="T80" s="1">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="W80" s="1">
         <f t="shared" si="32"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q80" s="1" t="e">
-        <f t="shared" si="33"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R80" s="1">
-        <f t="shared" si="34"/>
-        <v>510000000</v>
-      </c>
-      <c r="S80" s="1">
-        <f t="shared" si="35"/>
-        <v>1600000000</v>
-      </c>
-      <c r="T80" s="1">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="U80" s="1">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="W80" s="1">
-        <f t="shared" si="31"/>
         <v>527500000</v>
       </c>
     </row>
@@ -17482,11 +17599,11 @@
         <v>0</v>
       </c>
       <c r="P85" s="1" t="e">
-        <f t="shared" ref="P85:P99" si="38">I85*100*10^(-1*$I$2)</f>
+        <f t="shared" ref="P85:P99" si="39">I85*100*10^(-1*$I$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q85" s="1" t="e">
-        <f t="shared" ref="Q85:Q148" si="39">J85*100*10^(-1*$J$2)</f>
+        <f t="shared" ref="Q85:Q148" si="40">J85*100*10^(-1*$J$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="R85" s="1">
@@ -17554,11 +17671,11 @@
         <v>0</v>
       </c>
       <c r="P86" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R86" s="1">
@@ -17638,11 +17755,11 @@
         <v>0</v>
       </c>
       <c r="P87" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q87" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R87" s="1">
@@ -17662,7 +17779,7 @@
         <v>0</v>
       </c>
       <c r="W87" s="1">
-        <f t="shared" ref="W87:W150" si="40">_xlfn.AGGREGATE(1, 6, P87:U87)</f>
+        <f t="shared" ref="W87:W150" si="41">_xlfn.AGGREGATE(1, 6, P87:U87)</f>
         <v>0</v>
       </c>
     </row>
@@ -17710,31 +17827,31 @@
         <v>0</v>
       </c>
       <c r="P88" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q88" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R88" s="1">
-        <f t="shared" ref="R88:R91" si="41">K88*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R88:R91" si="42">K88*100*10^(-1*$K$2)</f>
         <v>0</v>
       </c>
       <c r="S88" s="1">
-        <f t="shared" ref="S88:S151" si="42">L88*100*10^(-1*$L$2)</f>
+        <f t="shared" ref="S88:S151" si="43">L88*100*10^(-1*$L$2)</f>
         <v>0</v>
       </c>
       <c r="T88" s="1">
-        <f t="shared" ref="T88:T151" si="43">M88*100*10^(-1*$M$2)</f>
+        <f t="shared" ref="T88:T151" si="44">M88*100*10^(-1*$M$2)</f>
         <v>0</v>
       </c>
       <c r="U88" s="1">
-        <f t="shared" ref="U88:U151" si="44">N88*100*10^(-1*$N$2)</f>
+        <f t="shared" ref="U88:U151" si="45">N88*100*10^(-1*$N$2)</f>
         <v>0</v>
       </c>
       <c r="W88" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="X88" s="1">
@@ -17794,31 +17911,31 @@
         <v>0</v>
       </c>
       <c r="P89" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="Q89" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="R89" s="1">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T89" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U89" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W89" s="1">
         <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="S89" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T89" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U89" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W89" s="1">
-        <f t="shared" si="40"/>
         <v>0</v>
       </c>
     </row>
@@ -17866,31 +17983,31 @@
         <v>0</v>
       </c>
       <c r="P90" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q90" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R90" s="1">
+        <f t="shared" si="42"/>
+        <v>670000000</v>
+      </c>
+      <c r="S90" s="1">
+        <f t="shared" si="43"/>
+        <v>1100000000</v>
+      </c>
+      <c r="T90" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U90" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W90" s="1">
         <f t="shared" si="41"/>
-        <v>670000000</v>
-      </c>
-      <c r="S90" s="1">
-        <f t="shared" si="42"/>
-        <v>1100000000</v>
-      </c>
-      <c r="T90" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U90" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W90" s="1">
-        <f t="shared" si="40"/>
         <v>692500000</v>
       </c>
       <c r="X90" s="1">
@@ -17950,31 +18067,31 @@
         <v>0</v>
       </c>
       <c r="P91" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q91" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R91" s="1">
+        <f t="shared" si="42"/>
+        <v>640000000</v>
+      </c>
+      <c r="S91" s="1">
+        <f t="shared" si="43"/>
+        <v>800000000</v>
+      </c>
+      <c r="T91" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U91" s="1">
+        <f t="shared" si="45"/>
+        <v>0</v>
+      </c>
+      <c r="W91" s="1">
         <f t="shared" si="41"/>
-        <v>640000000</v>
-      </c>
-      <c r="S91" s="1">
-        <f t="shared" si="42"/>
-        <v>800000000</v>
-      </c>
-      <c r="T91" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U91" s="1">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="W91" s="1">
-        <f t="shared" si="40"/>
         <v>360000000</v>
       </c>
     </row>
@@ -18022,11 +18139,11 @@
         <v>0</v>
       </c>
       <c r="P92" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q92" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R92" s="1">
@@ -18034,19 +18151,19 @@
         <v>740000000</v>
       </c>
       <c r="S92" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>800000000</v>
       </c>
       <c r="T92" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2000000000</v>
       </c>
       <c r="U92" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W92" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>885000000</v>
       </c>
       <c r="X92" s="1">
@@ -18106,31 +18223,31 @@
         <v>1</v>
       </c>
       <c r="P93" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q93" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R93" s="1">
-        <f t="shared" ref="R93:R156" si="45">K93*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R93:R156" si="46">K93*100*10^(-1*$K$2)</f>
         <v>570000000</v>
       </c>
       <c r="S93" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>600000000</v>
       </c>
       <c r="T93" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="U93" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>10000000000</v>
       </c>
       <c r="W93" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>2792500000</v>
       </c>
     </row>
@@ -18178,31 +18295,31 @@
         <v>0</v>
       </c>
       <c r="P94" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q94" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R94" s="1">
+        <f t="shared" si="46"/>
+        <v>690000000</v>
+      </c>
+      <c r="S94" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T94" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U94" s="1">
         <f t="shared" si="45"/>
-        <v>690000000</v>
-      </c>
-      <c r="S94" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T94" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U94" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W94" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>547500000</v>
       </c>
       <c r="X94" s="1">
@@ -18262,31 +18379,31 @@
         <v>0</v>
       </c>
       <c r="P95" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q95" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R95" s="1">
+        <f t="shared" si="46"/>
+        <v>600000000</v>
+      </c>
+      <c r="S95" s="1">
+        <f t="shared" si="43"/>
+        <v>1200000000</v>
+      </c>
+      <c r="T95" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U95" s="1">
         <f t="shared" si="45"/>
-        <v>600000000</v>
-      </c>
-      <c r="S95" s="1">
-        <f t="shared" si="42"/>
-        <v>1200000000</v>
-      </c>
-      <c r="T95" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U95" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W95" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>450000000</v>
       </c>
     </row>
@@ -18334,31 +18451,31 @@
         <v>0</v>
       </c>
       <c r="P96" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q96" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R96" s="1">
+        <f t="shared" si="46"/>
+        <v>880000000</v>
+      </c>
+      <c r="S96" s="1">
+        <f t="shared" si="43"/>
+        <v>800000000</v>
+      </c>
+      <c r="T96" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U96" s="1">
         <f t="shared" si="45"/>
-        <v>880000000</v>
-      </c>
-      <c r="S96" s="1">
-        <f t="shared" si="42"/>
-        <v>800000000</v>
-      </c>
-      <c r="T96" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U96" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W96" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>420000000</v>
       </c>
       <c r="X96" s="1">
@@ -18418,31 +18535,31 @@
         <v>0</v>
       </c>
       <c r="P97" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q97" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R97" s="1">
+        <f t="shared" si="46"/>
+        <v>610000000</v>
+      </c>
+      <c r="S97" s="1">
+        <f t="shared" si="43"/>
+        <v>1200000000</v>
+      </c>
+      <c r="T97" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U97" s="1">
         <f t="shared" si="45"/>
-        <v>610000000</v>
-      </c>
-      <c r="S97" s="1">
-        <f t="shared" si="42"/>
-        <v>1200000000</v>
-      </c>
-      <c r="T97" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U97" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W97" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>452500000</v>
       </c>
     </row>
@@ -18490,31 +18607,31 @@
         <v>0</v>
       </c>
       <c r="P98" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q98" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R98" s="1">
+        <f t="shared" si="46"/>
+        <v>700000000</v>
+      </c>
+      <c r="S98" s="1">
+        <f t="shared" si="43"/>
+        <v>800000000</v>
+      </c>
+      <c r="T98" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U98" s="1">
         <f t="shared" si="45"/>
-        <v>700000000</v>
-      </c>
-      <c r="S98" s="1">
-        <f t="shared" si="42"/>
-        <v>800000000</v>
-      </c>
-      <c r="T98" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U98" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W98" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>875000000</v>
       </c>
       <c r="X98" s="1">
@@ -18574,31 +18691,31 @@
         <v>0</v>
       </c>
       <c r="P99" s="1" t="e">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q99" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R99" s="1">
+        <f t="shared" si="46"/>
+        <v>690000000</v>
+      </c>
+      <c r="S99" s="1">
+        <f t="shared" si="43"/>
+        <v>900000000</v>
+      </c>
+      <c r="T99" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U99" s="1">
         <f t="shared" si="45"/>
-        <v>690000000</v>
-      </c>
-      <c r="S99" s="1">
-        <f t="shared" si="42"/>
-        <v>900000000</v>
-      </c>
-      <c r="T99" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U99" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W99" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>397500000</v>
       </c>
     </row>
@@ -18650,27 +18767,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="Q100" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R100" s="1">
+        <f t="shared" si="46"/>
+        <v>690000000</v>
+      </c>
+      <c r="S100" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T100" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U100" s="1">
         <f t="shared" si="45"/>
-        <v>690000000</v>
-      </c>
-      <c r="S100" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T100" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U100" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W100" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>572500000</v>
       </c>
       <c r="X100" s="1">
@@ -18730,31 +18847,31 @@
         <v>0</v>
       </c>
       <c r="P101" s="1" t="e">
-        <f t="shared" ref="P101:P161" si="46">I101*100*10^(-1*$I$2)</f>
+        <f t="shared" ref="P101:P161" si="47">I101*100*10^(-1*$I$2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="Q101" s="1" t="e">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>#VALUE!</v>
       </c>
       <c r="R101" s="1">
+        <f t="shared" si="46"/>
+        <v>680000000</v>
+      </c>
+      <c r="S101" s="1">
+        <f t="shared" si="43"/>
+        <v>1400000000</v>
+      </c>
+      <c r="T101" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U101" s="1">
         <f t="shared" si="45"/>
-        <v>680000000</v>
-      </c>
-      <c r="S101" s="1">
-        <f t="shared" si="42"/>
-        <v>1400000000</v>
-      </c>
-      <c r="T101" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U101" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W101" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>770000000</v>
       </c>
     </row>
@@ -18802,31 +18919,31 @@
         <v>0</v>
       </c>
       <c r="P102" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q102" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R102" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q102" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R102" s="1">
+        <v>110000000</v>
+      </c>
+      <c r="S102" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T102" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U102" s="1">
         <f t="shared" si="45"/>
-        <v>110000000</v>
-      </c>
-      <c r="S102" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T102" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U102" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W102" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>427500000</v>
       </c>
       <c r="X102" s="1">
@@ -18886,31 +19003,31 @@
         <v>0</v>
       </c>
       <c r="P103" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q103" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R103" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q103" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R103" s="1">
+        <v>180000000</v>
+      </c>
+      <c r="S103" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T103" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U103" s="1">
         <f t="shared" si="45"/>
-        <v>180000000</v>
-      </c>
-      <c r="S103" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T103" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U103" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W103" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>70000000</v>
       </c>
     </row>
@@ -18958,31 +19075,31 @@
         <v>0</v>
       </c>
       <c r="P104" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q104" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R104" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q104" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R104" s="1">
+        <v>670000000</v>
+      </c>
+      <c r="S104" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T104" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U104" s="1">
         <f t="shared" si="45"/>
-        <v>670000000</v>
-      </c>
-      <c r="S104" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T104" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U104" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W104" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>267500000</v>
       </c>
       <c r="X104" s="1">
@@ -19042,31 +19159,31 @@
         <v>0</v>
       </c>
       <c r="P105" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q105" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R105" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q105" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R105" s="1">
+        <v>790000000</v>
+      </c>
+      <c r="S105" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T105" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U105" s="1">
         <f t="shared" si="45"/>
-        <v>790000000</v>
-      </c>
-      <c r="S105" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T105" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U105" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W105" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>622500000</v>
       </c>
     </row>
@@ -19114,31 +19231,31 @@
         <v>0</v>
       </c>
       <c r="P106" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q106" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R106" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q106" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R106" s="1">
+        <v>530000000</v>
+      </c>
+      <c r="S106" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T106" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U106" s="1">
         <f t="shared" si="45"/>
-        <v>530000000</v>
-      </c>
-      <c r="S106" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T106" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U106" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W106" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>207500000</v>
       </c>
       <c r="X106" s="1">
@@ -19198,31 +19315,31 @@
         <v>0</v>
       </c>
       <c r="P107" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q107" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R107" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q107" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R107" s="1">
+        <v>520000000</v>
+      </c>
+      <c r="S107" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T107" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U107" s="1">
         <f t="shared" si="45"/>
-        <v>520000000</v>
-      </c>
-      <c r="S107" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T107" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U107" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>805000000</v>
       </c>
     </row>
@@ -19270,31 +19387,31 @@
         <v>0</v>
       </c>
       <c r="P108" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q108" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R108" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q108" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R108" s="1">
+        <v>390000000</v>
+      </c>
+      <c r="S108" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T108" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U108" s="1">
         <f t="shared" si="45"/>
-        <v>390000000</v>
-      </c>
-      <c r="S108" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T108" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U108" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W108" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>497500000</v>
       </c>
       <c r="X108" s="1">
@@ -19354,31 +19471,31 @@
         <v>0</v>
       </c>
       <c r="P109" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q109" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R109" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q109" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R109" s="1">
+        <v>330000000</v>
+      </c>
+      <c r="S109" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T109" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U109" s="1">
         <f t="shared" si="45"/>
-        <v>330000000</v>
-      </c>
-      <c r="S109" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T109" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U109" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W109" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>182500000</v>
       </c>
     </row>
@@ -19426,7 +19543,7 @@
         <v>0</v>
       </c>
       <c r="P110" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q110" s="1" t="e">
@@ -19434,23 +19551,23 @@
         <v>#VALUE!</v>
       </c>
       <c r="R110" s="1">
+        <f t="shared" si="46"/>
+        <v>300000000</v>
+      </c>
+      <c r="S110" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T110" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U110" s="1">
         <f t="shared" si="45"/>
-        <v>300000000</v>
-      </c>
-      <c r="S110" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T110" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U110" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W110" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>100000000</v>
       </c>
       <c r="X110" s="1">
@@ -19510,31 +19627,31 @@
         <v>0</v>
       </c>
       <c r="P111" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q111" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R111" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q111" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R111" s="1">
+        <v>350000000</v>
+      </c>
+      <c r="S111" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T111" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U111" s="1">
         <f t="shared" si="45"/>
-        <v>350000000</v>
-      </c>
-      <c r="S111" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T111" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U111" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W111" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>437500000</v>
       </c>
     </row>
@@ -19582,31 +19699,31 @@
         <v>0</v>
       </c>
       <c r="P112" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q112" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R112" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q112" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R112" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="S112" s="1">
+        <f t="shared" si="43"/>
+        <v>200000000</v>
+      </c>
+      <c r="T112" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U112" s="1">
         <f t="shared" si="45"/>
-        <v>160000000</v>
-      </c>
-      <c r="S112" s="1">
-        <f t="shared" si="42"/>
-        <v>200000000</v>
-      </c>
-      <c r="T112" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U112" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W112" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>90000000</v>
       </c>
       <c r="X112" s="1">
@@ -19666,31 +19783,31 @@
         <v>0</v>
       </c>
       <c r="P113" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q113" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R113" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q113" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R113" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="S113" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T113" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U113" s="1">
         <f t="shared" si="45"/>
-        <v>150000000</v>
-      </c>
-      <c r="S113" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T113" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U113" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W113" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>312500000</v>
       </c>
     </row>
@@ -19738,31 +19855,31 @@
         <v>0</v>
       </c>
       <c r="P114" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q114" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R114" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q114" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R114" s="1">
+        <v>530000000</v>
+      </c>
+      <c r="S114" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T114" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U114" s="1">
         <f t="shared" si="45"/>
-        <v>530000000</v>
-      </c>
-      <c r="S114" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T114" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U114" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W114" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>307500000</v>
       </c>
       <c r="X114" s="1">
@@ -19822,31 +19939,31 @@
         <v>0</v>
       </c>
       <c r="P115" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q115" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R115" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q115" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R115" s="1">
+        <v>550000000</v>
+      </c>
+      <c r="S115" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T115" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U115" s="1">
         <f t="shared" si="45"/>
-        <v>550000000</v>
-      </c>
-      <c r="S115" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T115" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U115" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W115" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>512500000</v>
       </c>
     </row>
@@ -19894,31 +20011,31 @@
         <v>0</v>
       </c>
       <c r="P116" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q116" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R116" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q116" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R116" s="1">
+        <v>460000000</v>
+      </c>
+      <c r="S116" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T116" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U116" s="1">
         <f t="shared" si="45"/>
-        <v>460000000</v>
-      </c>
-      <c r="S116" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T116" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U116" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W116" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>215000000</v>
       </c>
       <c r="X116" s="1">
@@ -19978,31 +20095,31 @@
         <v>0</v>
       </c>
       <c r="P117" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q117" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R117" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q117" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R117" s="1">
+        <v>330000000</v>
+      </c>
+      <c r="S117" s="1">
+        <f t="shared" si="43"/>
+        <v>600000000</v>
+      </c>
+      <c r="T117" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U117" s="1">
         <f t="shared" si="45"/>
-        <v>330000000</v>
-      </c>
-      <c r="S117" s="1">
-        <f t="shared" si="42"/>
-        <v>600000000</v>
-      </c>
-      <c r="T117" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U117" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W117" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>232500000</v>
       </c>
     </row>
@@ -20050,31 +20167,31 @@
         <v>0</v>
       </c>
       <c r="P118" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q118" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R118" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q118" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R118" s="1">
+        <v>350000000</v>
+      </c>
+      <c r="S118" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T118" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U118" s="1">
         <f t="shared" si="45"/>
-        <v>350000000</v>
-      </c>
-      <c r="S118" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T118" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U118" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W118" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>437500000</v>
       </c>
       <c r="X118" s="1">
@@ -20134,31 +20251,31 @@
         <v>0</v>
       </c>
       <c r="P119" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q119" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R119" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q119" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R119" s="1">
+        <v>270000000</v>
+      </c>
+      <c r="S119" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T119" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U119" s="1">
         <f t="shared" si="45"/>
-        <v>270000000</v>
-      </c>
-      <c r="S119" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T119" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U119" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W119" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>342500000</v>
       </c>
     </row>
@@ -20206,31 +20323,31 @@
         <v>0</v>
       </c>
       <c r="P120" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q120" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R120" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q120" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R120" s="1">
+        <v>210000000</v>
+      </c>
+      <c r="S120" s="1">
+        <f t="shared" si="43"/>
+        <v>200000000</v>
+      </c>
+      <c r="T120" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U120" s="1">
         <f t="shared" si="45"/>
-        <v>210000000</v>
-      </c>
-      <c r="S120" s="1">
-        <f t="shared" si="42"/>
-        <v>200000000</v>
-      </c>
-      <c r="T120" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U120" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W120" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>102500000</v>
       </c>
       <c r="X120" s="1">
@@ -20290,31 +20407,31 @@
         <v>0</v>
       </c>
       <c r="P121" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q121" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R121" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q121" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R121" s="1">
+        <v>150000000</v>
+      </c>
+      <c r="S121" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T121" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U121" s="1">
         <f t="shared" si="45"/>
-        <v>150000000</v>
-      </c>
-      <c r="S121" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T121" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U121" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W121" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>112500000</v>
       </c>
     </row>
@@ -20362,31 +20479,31 @@
         <v>0</v>
       </c>
       <c r="P122" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q122" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R122" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q122" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R122" s="1">
+        <v>140000000</v>
+      </c>
+      <c r="S122" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T122" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U122" s="1">
         <f t="shared" si="45"/>
-        <v>140000000</v>
-      </c>
-      <c r="S122" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T122" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U122" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W122" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>60000000</v>
       </c>
       <c r="X122" s="1">
@@ -20446,31 +20563,31 @@
         <v>0</v>
       </c>
       <c r="P123" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q123" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R123" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q123" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R123" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="S123" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T123" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U123" s="1">
         <f t="shared" si="45"/>
-        <v>160000000</v>
-      </c>
-      <c r="S123" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T123" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U123" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W123" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>540000000</v>
       </c>
     </row>
@@ -20518,31 +20635,31 @@
         <v>0</v>
       </c>
       <c r="P124" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q124" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R124" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q124" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R124" s="1">
+        <v>550000000</v>
+      </c>
+      <c r="S124" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T124" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U124" s="1">
         <f t="shared" si="45"/>
-        <v>550000000</v>
-      </c>
-      <c r="S124" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T124" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U124" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W124" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>212500000</v>
       </c>
       <c r="X124" s="1">
@@ -20602,31 +20719,31 @@
         <v>0</v>
       </c>
       <c r="P125" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q125" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R125" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q125" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R125" s="1">
+        <v>530000000</v>
+      </c>
+      <c r="S125" s="1">
+        <f t="shared" si="43"/>
+        <v>900000000</v>
+      </c>
+      <c r="T125" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U125" s="1">
         <f t="shared" si="45"/>
-        <v>530000000</v>
-      </c>
-      <c r="S125" s="1">
-        <f t="shared" si="42"/>
-        <v>900000000</v>
-      </c>
-      <c r="T125" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U125" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W125" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>607500000</v>
       </c>
     </row>
@@ -20674,31 +20791,31 @@
         <v>0</v>
       </c>
       <c r="P126" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q126" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R126" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q126" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R126" s="1">
+        <v>390000000</v>
+      </c>
+      <c r="S126" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T126" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U126" s="1">
         <f t="shared" si="45"/>
-        <v>390000000</v>
-      </c>
-      <c r="S126" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T126" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U126" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W126" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>197500000</v>
       </c>
       <c r="X126" s="1">
@@ -20758,31 +20875,31 @@
         <v>0</v>
       </c>
       <c r="P127" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q127" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R127" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q127" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R127" s="1">
+        <v>550000000</v>
+      </c>
+      <c r="S127" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T127" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U127" s="1">
         <f t="shared" si="45"/>
-        <v>550000000</v>
-      </c>
-      <c r="S127" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T127" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U127" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W127" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>487500000</v>
       </c>
     </row>
@@ -20830,31 +20947,31 @@
         <v>0</v>
       </c>
       <c r="P128" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q128" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R128" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q128" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R128" s="1">
+        <v>320000000</v>
+      </c>
+      <c r="S128" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T128" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U128" s="1">
         <f t="shared" si="45"/>
-        <v>320000000</v>
-      </c>
-      <c r="S128" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T128" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U128" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W128" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>180000000</v>
       </c>
       <c r="X128" s="1">
@@ -20914,31 +21031,31 @@
         <v>0</v>
       </c>
       <c r="P129" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q129" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R129" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q129" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R129" s="1">
+        <v>440000000</v>
+      </c>
+      <c r="S129" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T129" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U129" s="1">
         <f t="shared" si="45"/>
-        <v>440000000</v>
-      </c>
-      <c r="S129" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T129" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U129" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W129" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>435000000</v>
       </c>
     </row>
@@ -20986,31 +21103,31 @@
         <v>0</v>
       </c>
       <c r="P130" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q130" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R130" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q130" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R130" s="1">
+        <v>230000000</v>
+      </c>
+      <c r="S130" s="1">
+        <f t="shared" si="43"/>
+        <v>200000000</v>
+      </c>
+      <c r="T130" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U130" s="1">
         <f t="shared" si="45"/>
-        <v>230000000</v>
-      </c>
-      <c r="S130" s="1">
-        <f t="shared" si="42"/>
-        <v>200000000</v>
-      </c>
-      <c r="T130" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U130" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W130" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>107500000</v>
       </c>
       <c r="X130" s="1">
@@ -21070,31 +21187,31 @@
         <v>0</v>
       </c>
       <c r="P131" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q131" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R131" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q131" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R131" s="1">
+        <v>340000000</v>
+      </c>
+      <c r="S131" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T131" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U131" s="1">
         <f t="shared" si="45"/>
-        <v>340000000</v>
-      </c>
-      <c r="S131" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T131" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U131" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W131" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>110000000</v>
       </c>
     </row>
@@ -21142,31 +21259,31 @@
         <v>0</v>
       </c>
       <c r="P132" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q132" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R132" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q132" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R132" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="S132" s="1">
+        <f t="shared" si="43"/>
+        <v>200000000</v>
+      </c>
+      <c r="T132" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U132" s="1">
         <f t="shared" si="45"/>
-        <v>160000000</v>
-      </c>
-      <c r="S132" s="1">
-        <f t="shared" si="42"/>
-        <v>200000000</v>
-      </c>
-      <c r="T132" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U132" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W132" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>90000000</v>
       </c>
       <c r="X132" s="1">
@@ -21226,31 +21343,31 @@
         <v>0</v>
       </c>
       <c r="P133" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q133" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R133" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q133" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R133" s="1">
+        <v>250000000</v>
+      </c>
+      <c r="S133" s="1">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="T133" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U133" s="1">
         <f t="shared" si="45"/>
-        <v>250000000</v>
-      </c>
-      <c r="S133" s="1">
-        <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="T133" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U133" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W133" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>62500000</v>
       </c>
     </row>
@@ -21298,31 +21415,31 @@
         <v>0</v>
       </c>
       <c r="P134" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q134" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R134" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q134" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R134" s="1">
+        <v>670000000</v>
+      </c>
+      <c r="S134" s="1">
+        <f t="shared" si="43"/>
+        <v>800000000</v>
+      </c>
+      <c r="T134" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U134" s="1">
         <f t="shared" si="45"/>
-        <v>670000000</v>
-      </c>
-      <c r="S134" s="1">
-        <f t="shared" si="42"/>
-        <v>800000000</v>
-      </c>
-      <c r="T134" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U134" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W134" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>617500000</v>
       </c>
       <c r="X134" s="1">
@@ -21382,31 +21499,31 @@
         <v>0</v>
       </c>
       <c r="P135" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q135" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R135" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q135" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R135" s="1">
+        <v>770000000</v>
+      </c>
+      <c r="S135" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T135" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U135" s="1">
         <f t="shared" si="45"/>
-        <v>770000000</v>
-      </c>
-      <c r="S135" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T135" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U135" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W135" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>867500000</v>
       </c>
     </row>
@@ -21454,31 +21571,31 @@
         <v>0</v>
       </c>
       <c r="P136" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q136" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R136" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q136" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R136" s="1">
+        <v>520000000</v>
+      </c>
+      <c r="S136" s="1">
+        <f t="shared" si="43"/>
+        <v>900000000</v>
+      </c>
+      <c r="T136" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U136" s="1">
         <f t="shared" si="45"/>
-        <v>520000000</v>
-      </c>
-      <c r="S136" s="1">
-        <f t="shared" si="42"/>
-        <v>900000000</v>
-      </c>
-      <c r="T136" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U136" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W136" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>355000000</v>
       </c>
       <c r="X136" s="1">
@@ -21538,31 +21655,31 @@
         <v>0</v>
       </c>
       <c r="P137" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q137" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R137" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q137" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R137" s="1">
+        <v>590000000</v>
+      </c>
+      <c r="S137" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T137" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U137" s="1">
         <f t="shared" si="45"/>
-        <v>590000000</v>
-      </c>
-      <c r="S137" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T137" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U137" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W137" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>247500000</v>
       </c>
     </row>
@@ -21610,31 +21727,31 @@
         <v>0</v>
       </c>
       <c r="P138" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q138" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R138" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q138" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R138" s="1">
+        <v>260000000</v>
+      </c>
+      <c r="S138" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T138" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U138" s="1">
         <f t="shared" si="45"/>
-        <v>260000000</v>
-      </c>
-      <c r="S138" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T138" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U138" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W138" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>140000000</v>
       </c>
       <c r="X138" s="1">
@@ -21694,31 +21811,31 @@
         <v>0</v>
       </c>
       <c r="P139" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q139" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R139" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q139" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R139" s="1">
+        <v>210000000</v>
+      </c>
+      <c r="S139" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T139" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U139" s="1">
         <f t="shared" si="45"/>
-        <v>210000000</v>
-      </c>
-      <c r="S139" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T139" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U139" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W139" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>227500000</v>
       </c>
     </row>
@@ -21766,31 +21883,31 @@
         <v>0</v>
       </c>
       <c r="P140" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q140" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R140" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q140" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R140" s="1">
+        <v>600000000</v>
+      </c>
+      <c r="S140" s="1">
+        <f t="shared" si="43"/>
+        <v>500000000</v>
+      </c>
+      <c r="T140" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U140" s="1">
         <f t="shared" si="45"/>
-        <v>600000000</v>
-      </c>
-      <c r="S140" s="1">
-        <f t="shared" si="42"/>
-        <v>500000000</v>
-      </c>
-      <c r="T140" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U140" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W140" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>775000000</v>
       </c>
       <c r="X140" s="1">
@@ -21850,31 +21967,31 @@
         <v>1</v>
       </c>
       <c r="P141" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q141" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R141" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q141" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R141" s="1">
+        <v>440000000</v>
+      </c>
+      <c r="S141" s="1">
+        <f t="shared" si="43"/>
+        <v>800000000</v>
+      </c>
+      <c r="T141" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U141" s="1">
         <f t="shared" si="45"/>
-        <v>440000000</v>
-      </c>
-      <c r="S141" s="1">
-        <f t="shared" si="42"/>
-        <v>800000000</v>
-      </c>
-      <c r="T141" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U141" s="1">
-        <f t="shared" si="44"/>
         <v>10000000000</v>
       </c>
       <c r="W141" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3310000000</v>
       </c>
     </row>
@@ -21922,31 +22039,31 @@
         <v>0</v>
       </c>
       <c r="P142" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q142" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R142" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q142" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R142" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="S142" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T142" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U142" s="1">
         <f t="shared" si="45"/>
-        <v>160000000</v>
-      </c>
-      <c r="S142" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T142" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U142" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W142" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>65000000</v>
       </c>
       <c r="X142" s="1">
@@ -22006,31 +22123,31 @@
         <v>0</v>
       </c>
       <c r="P143" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q143" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R143" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q143" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R143" s="1">
+        <v>220000000</v>
+      </c>
+      <c r="S143" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T143" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U143" s="1">
         <f t="shared" si="45"/>
-        <v>220000000</v>
-      </c>
-      <c r="S143" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T143" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U143" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W143" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>130000000</v>
       </c>
     </row>
@@ -22078,31 +22195,31 @@
         <v>0</v>
       </c>
       <c r="P144" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q144" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R144" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q144" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R144" s="1">
+        <v>660000000</v>
+      </c>
+      <c r="S144" s="1">
+        <f t="shared" si="43"/>
+        <v>800000000</v>
+      </c>
+      <c r="T144" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U144" s="1">
         <f t="shared" si="45"/>
-        <v>660000000</v>
-      </c>
-      <c r="S144" s="1">
-        <f t="shared" si="42"/>
-        <v>800000000</v>
-      </c>
-      <c r="T144" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U144" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W144" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>365000000</v>
       </c>
       <c r="X144" s="1">
@@ -22162,31 +22279,31 @@
         <v>1</v>
       </c>
       <c r="P145" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q145" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R145" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q145" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R145" s="1">
+        <v>800000000</v>
+      </c>
+      <c r="S145" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T145" s="1">
+        <f t="shared" si="44"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U145" s="1">
         <f t="shared" si="45"/>
-        <v>800000000</v>
-      </c>
-      <c r="S145" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T145" s="1">
-        <f t="shared" si="43"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U145" s="1">
-        <f t="shared" si="44"/>
         <v>10000000000</v>
       </c>
       <c r="W145" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>3300000000</v>
       </c>
     </row>
@@ -22234,31 +22351,31 @@
         <v>0</v>
       </c>
       <c r="P146" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q146" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R146" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q146" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R146" s="1">
+        <v>640000000</v>
+      </c>
+      <c r="S146" s="1">
+        <f t="shared" si="43"/>
+        <v>700000000</v>
+      </c>
+      <c r="T146" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U146" s="1">
         <f t="shared" si="45"/>
-        <v>640000000</v>
-      </c>
-      <c r="S146" s="1">
-        <f t="shared" si="42"/>
-        <v>700000000</v>
-      </c>
-      <c r="T146" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U146" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W146" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>335000000</v>
       </c>
       <c r="X146" s="1">
@@ -22318,31 +22435,31 @@
         <v>0</v>
       </c>
       <c r="P147" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q147" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R147" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q147" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R147" s="1">
+        <v>640000000</v>
+      </c>
+      <c r="S147" s="1">
+        <f t="shared" si="43"/>
+        <v>400000000</v>
+      </c>
+      <c r="T147" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U147" s="1">
         <f t="shared" si="45"/>
-        <v>640000000</v>
-      </c>
-      <c r="S147" s="1">
-        <f t="shared" si="42"/>
-        <v>400000000</v>
-      </c>
-      <c r="T147" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U147" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W147" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>260000000</v>
       </c>
     </row>
@@ -22390,31 +22507,31 @@
         <v>0</v>
       </c>
       <c r="P148" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q148" s="1" t="e">
+        <f t="shared" si="40"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R148" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q148" s="1" t="e">
-        <f t="shared" si="39"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R148" s="1">
+        <v>360000000</v>
+      </c>
+      <c r="S148" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T148" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U148" s="1">
         <f t="shared" si="45"/>
-        <v>360000000</v>
-      </c>
-      <c r="S148" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T148" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U148" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W148" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>415000000</v>
       </c>
       <c r="X148" s="1">
@@ -22474,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="P149" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q149" s="1" t="e">
+        <f t="shared" ref="Q149:Q161" si="48">J149*100*10^(-1*$J$2)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R149" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q149" s="1" t="e">
-        <f t="shared" ref="Q149:Q161" si="47">J149*100*10^(-1*$J$2)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R149" s="1">
+        <v>420000000</v>
+      </c>
+      <c r="S149" s="1">
+        <f t="shared" si="43"/>
+        <v>300000000</v>
+      </c>
+      <c r="T149" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U149" s="1">
         <f t="shared" si="45"/>
-        <v>420000000</v>
-      </c>
-      <c r="S149" s="1">
-        <f t="shared" si="42"/>
-        <v>300000000</v>
-      </c>
-      <c r="T149" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U149" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W149" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>180000000</v>
       </c>
     </row>
@@ -22546,31 +22663,31 @@
         <v>0</v>
       </c>
       <c r="P150" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q150" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R150" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q150" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R150" s="1">
+        <v>290000000</v>
+      </c>
+      <c r="S150" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T150" s="1">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="U150" s="1">
         <f t="shared" si="45"/>
-        <v>290000000</v>
-      </c>
-      <c r="S150" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T150" s="1">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="U150" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W150" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>97500000</v>
       </c>
       <c r="X150" s="1">
@@ -22630,31 +22747,31 @@
         <v>0</v>
       </c>
       <c r="P151" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q151" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R151" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q151" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R151" s="1">
+        <v>160000000</v>
+      </c>
+      <c r="S151" s="1">
+        <f t="shared" si="43"/>
+        <v>100000000</v>
+      </c>
+      <c r="T151" s="1">
+        <f t="shared" si="44"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U151" s="1">
         <f t="shared" si="45"/>
-        <v>160000000</v>
-      </c>
-      <c r="S151" s="1">
-        <f t="shared" si="42"/>
-        <v>100000000</v>
-      </c>
-      <c r="T151" s="1">
-        <f t="shared" si="43"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U151" s="1">
-        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W151" s="1">
-        <f t="shared" ref="W151:W161" si="48">_xlfn.AGGREGATE(1, 6, P151:U151)</f>
+        <f t="shared" ref="W151:W161" si="49">_xlfn.AGGREGATE(1, 6, P151:U151)</f>
         <v>315000000</v>
       </c>
     </row>
@@ -22702,31 +22819,31 @@
         <v>0</v>
       </c>
       <c r="P152" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q152" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R152" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q152" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R152" s="1">
-        <f t="shared" si="45"/>
         <v>210000000</v>
       </c>
       <c r="S152" s="1">
-        <f t="shared" ref="S152:S161" si="49">L152*100*10^(-1*$L$2)</f>
+        <f t="shared" ref="S152:S161" si="50">L152*100*10^(-1*$L$2)</f>
         <v>400000000</v>
       </c>
       <c r="T152" s="1">
-        <f t="shared" ref="T152:T161" si="50">M152*100*10^(-1*$M$2)</f>
+        <f t="shared" ref="T152:T161" si="51">M152*100*10^(-1*$M$2)</f>
         <v>0</v>
       </c>
       <c r="U152" s="1">
-        <f t="shared" ref="U152:U161" si="51">N152*100*10^(-1*$N$2)</f>
+        <f t="shared" ref="U152:U161" si="52">N152*100*10^(-1*$N$2)</f>
         <v>0</v>
       </c>
       <c r="W152" s="1">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>152500000</v>
       </c>
       <c r="X152" s="1">
@@ -22786,31 +22903,31 @@
         <v>1</v>
       </c>
       <c r="P153" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q153" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R153" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q153" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R153" s="1">
-        <f t="shared" si="45"/>
         <v>240000000</v>
       </c>
       <c r="S153" s="1">
+        <f t="shared" si="50"/>
+        <v>400000000</v>
+      </c>
+      <c r="T153" s="1">
+        <f t="shared" si="51"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U153" s="1">
+        <f t="shared" si="52"/>
+        <v>10000000000</v>
+      </c>
+      <c r="W153" s="1">
         <f t="shared" si="49"/>
-        <v>400000000</v>
-      </c>
-      <c r="T153" s="1">
-        <f t="shared" si="50"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U153" s="1">
-        <f t="shared" si="51"/>
-        <v>10000000000</v>
-      </c>
-      <c r="W153" s="1">
-        <f t="shared" si="48"/>
         <v>2910000000</v>
       </c>
     </row>
@@ -22858,31 +22975,31 @@
         <v>0</v>
       </c>
       <c r="P154" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q154" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R154" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q154" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R154" s="1">
-        <f t="shared" si="45"/>
         <v>500000000</v>
       </c>
       <c r="S154" s="1">
+        <f t="shared" si="50"/>
+        <v>600000000</v>
+      </c>
+      <c r="T154" s="1">
+        <f t="shared" si="51"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U154" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W154" s="1">
         <f t="shared" si="49"/>
-        <v>600000000</v>
-      </c>
-      <c r="T154" s="1">
-        <f t="shared" si="50"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U154" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W154" s="1">
-        <f t="shared" si="48"/>
         <v>525000000</v>
       </c>
       <c r="X154" s="1">
@@ -22942,31 +23059,31 @@
         <v>0</v>
       </c>
       <c r="P155" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q155" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R155" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q155" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R155" s="1">
-        <f t="shared" si="45"/>
         <v>480000000</v>
       </c>
       <c r="S155" s="1">
+        <f t="shared" si="50"/>
+        <v>1000000000</v>
+      </c>
+      <c r="T155" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U155" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W155" s="1">
         <f t="shared" si="49"/>
-        <v>1000000000</v>
-      </c>
-      <c r="T155" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U155" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W155" s="1">
-        <f t="shared" si="48"/>
         <v>370000000</v>
       </c>
     </row>
@@ -23014,31 +23131,31 @@
         <v>0</v>
       </c>
       <c r="P156" s="1" t="e">
+        <f t="shared" si="47"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="Q156" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R156" s="1">
         <f t="shared" si="46"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q156" s="1" t="e">
-        <f t="shared" si="47"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R156" s="1">
-        <f t="shared" si="45"/>
         <v>470000000</v>
       </c>
       <c r="S156" s="1">
+        <f t="shared" si="50"/>
+        <v>200000000</v>
+      </c>
+      <c r="T156" s="1">
+        <f t="shared" si="51"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U156" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W156" s="1">
         <f t="shared" si="49"/>
-        <v>200000000</v>
-      </c>
-      <c r="T156" s="1">
-        <f t="shared" si="50"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U156" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W156" s="1">
-        <f t="shared" si="48"/>
         <v>417500000</v>
       </c>
       <c r="X156" s="1">
@@ -23098,31 +23215,31 @@
         <v>0</v>
       </c>
       <c r="P157" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q157" s="1" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="R157" s="1">
-        <f t="shared" ref="R157:R161" si="52">K157*100*10^(-1*$K$2)</f>
+        <f t="shared" ref="R157:R161" si="53">K157*100*10^(-1*$K$2)</f>
         <v>550000000</v>
       </c>
       <c r="S157" s="1">
+        <f t="shared" si="50"/>
+        <v>500000000</v>
+      </c>
+      <c r="T157" s="1">
+        <f t="shared" si="51"/>
+        <v>2000000000</v>
+      </c>
+      <c r="U157" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="W157" s="1">
         <f t="shared" si="49"/>
-        <v>500000000</v>
-      </c>
-      <c r="T157" s="1">
-        <f t="shared" si="50"/>
-        <v>2000000000</v>
-      </c>
-      <c r="U157" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W157" s="1">
-        <f t="shared" si="48"/>
         <v>762500000</v>
       </c>
     </row>
@@ -23170,31 +23287,31 @@
         <v>0</v>
       </c>
       <c r="P158" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q158" s="1" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="R158" s="1">
+        <f t="shared" si="53"/>
+        <v>230000000</v>
+      </c>
+      <c r="S158" s="1">
+        <f t="shared" si="50"/>
+        <v>100000000</v>
+      </c>
+      <c r="T158" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U158" s="1">
         <f t="shared" si="52"/>
-        <v>230000000</v>
-      </c>
-      <c r="S158" s="1">
+        <v>0</v>
+      </c>
+      <c r="W158" s="1">
         <f t="shared" si="49"/>
-        <v>100000000</v>
-      </c>
-      <c r="T158" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U158" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W158" s="1">
-        <f t="shared" si="48"/>
         <v>82500000</v>
       </c>
       <c r="X158" s="1">
@@ -23254,31 +23371,31 @@
         <v>0</v>
       </c>
       <c r="P159" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q159" s="1" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="R159" s="1">
+        <f t="shared" si="53"/>
+        <v>180000000</v>
+      </c>
+      <c r="S159" s="1">
+        <f t="shared" si="50"/>
+        <v>200000000</v>
+      </c>
+      <c r="T159" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="U159" s="1">
         <f t="shared" si="52"/>
-        <v>180000000</v>
-      </c>
-      <c r="S159" s="1">
+        <v>0</v>
+      </c>
+      <c r="W159" s="1">
         <f t="shared" si="49"/>
-        <v>200000000</v>
-      </c>
-      <c r="T159" s="1">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="U159" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W159" s="1">
-        <f t="shared" si="48"/>
         <v>95000000</v>
       </c>
     </row>
@@ -23326,31 +23443,31 @@
         <v>0</v>
       </c>
       <c r="P160" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q160" s="1" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="R160" s="1">
+        <f t="shared" si="53"/>
+        <v>360000000</v>
+      </c>
+      <c r="S160" s="1">
+        <f t="shared" si="50"/>
+        <v>300000000</v>
+      </c>
+      <c r="T160" s="1">
+        <f t="shared" si="51"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U160" s="1">
         <f t="shared" si="52"/>
-        <v>360000000</v>
-      </c>
-      <c r="S160" s="1">
+        <v>0</v>
+      </c>
+      <c r="W160" s="1">
         <f t="shared" si="49"/>
-        <v>300000000</v>
-      </c>
-      <c r="T160" s="1">
-        <f t="shared" si="50"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U160" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W160" s="1">
-        <f t="shared" si="48"/>
         <v>415000000</v>
       </c>
       <c r="X160" s="1">
@@ -23410,31 +23527,31 @@
         <v>0</v>
       </c>
       <c r="P161" s="1" t="e">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>#VALUE!</v>
       </c>
       <c r="Q161" s="1" t="e">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>#VALUE!</v>
       </c>
       <c r="R161" s="1">
+        <f t="shared" si="53"/>
+        <v>540000000</v>
+      </c>
+      <c r="S161" s="1">
+        <f t="shared" si="50"/>
+        <v>300000000</v>
+      </c>
+      <c r="T161" s="1">
+        <f t="shared" si="51"/>
+        <v>1000000000</v>
+      </c>
+      <c r="U161" s="1">
         <f t="shared" si="52"/>
-        <v>540000000</v>
-      </c>
-      <c r="S161" s="1">
+        <v>0</v>
+      </c>
+      <c r="W161" s="1">
         <f t="shared" si="49"/>
-        <v>300000000</v>
-      </c>
-      <c r="T161" s="1">
-        <f t="shared" si="50"/>
-        <v>1000000000</v>
-      </c>
-      <c r="U161" s="1">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="W161" s="1">
-        <f t="shared" si="48"/>
         <v>460000000</v>
       </c>
     </row>
